--- a/doc/0511整体需求整理/经营科需求开发计划.xlsx
+++ b/doc/0511整体需求整理/经营科需求开发计划.xlsx
@@ -455,7 +455,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -600,10 +606,6 @@
     </xf>
     <xf numFmtId="31" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -641,6 +643,30 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -964,15 +990,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1007,25 +1033,25 @@
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>43251</v>
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="36" customFormat="1" ht="52.9" customHeight="1">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:7" s="35" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33">
         <v>43251</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="70.900000000000006" customHeight="1">
       <c r="A5" s="20" t="s">
@@ -1037,7 +1063,7 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>43251</v>
       </c>
       <c r="G5" s="14"/>
@@ -1052,7 +1078,7 @@
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>43251</v>
       </c>
       <c r="G6" s="14"/>
@@ -1067,7 +1093,7 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>43251</v>
       </c>
       <c r="G7" s="14"/>
@@ -1082,7 +1108,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>43251</v>
       </c>
       <c r="G8" s="14"/>
@@ -1095,7 +1121,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>43251</v>
       </c>
       <c r="G9" s="14"/>
@@ -1331,7 +1357,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1345,14 +1371,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1375,237 +1401,237 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="39">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45">
         <v>2</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="39">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45">
         <v>0.2</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="39">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45">
         <v>0.2</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="39">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="39">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45">
         <v>0.2</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="39">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45">
         <v>0.2</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="39">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39">
+      <c r="B10" s="50"/>
+      <c r="C10" s="45">
         <v>0.5</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="60" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38">
         <v>2</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38">
         <v>2</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38">
         <v>2</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/0511整体需求整理/经营科需求开发计划.xlsx
+++ b/doc/0511整体需求整理/经营科需求开发计划.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -662,11 +662,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -990,15 +990,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1371,14 +1371,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1516,7 +1516,7 @@
       <c r="A10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="45">
         <v>0.5</v>
       </c>
@@ -1526,23 +1526,23 @@
       <c r="E10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" ht="60" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38">
+      <c r="B11" s="49"/>
+      <c r="C11" s="45">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="20" t="s">
@@ -1561,20 +1561,20 @@
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38">
+      <c r="B13" s="49"/>
+      <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="20" t="s">

--- a/doc/0511整体需求整理/经营科需求开发计划.xlsx
+++ b/doc/0511整体需求整理/经营科需求开发计划.xlsx
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -629,13 +629,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,15 +983,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1357,7 +1350,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1371,14 +1364,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1401,237 +1394,237 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42">
         <v>2</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42">
         <v>0.2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42">
         <v>0.2</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42">
         <v>1</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42">
         <v>0.2</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42">
         <v>0.2</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42">
         <v>2</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="45">
+      <c r="B10" s="46"/>
+      <c r="C10" s="42">
         <v>0.5</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" ht="60" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="45">
+      <c r="B11" s="46"/>
+      <c r="C11" s="42">
         <v>2</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38">
+      <c r="B12" s="46"/>
+      <c r="C12" s="42">
         <v>3</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="45">
+      <c r="B13" s="46"/>
+      <c r="C13" s="42">
         <v>2</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38">
+      <c r="B14" s="46"/>
+      <c r="C14" s="42">
         <v>2</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38">
+      <c r="B15" s="46"/>
+      <c r="C15" s="42">
         <v>1</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
